--- a/data/trans_bre/P57_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.343457942720347</v>
+        <v>1.606525076044367</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.332995919812866</v>
+        <v>-2.166335176697894</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.04760379350886957</v>
+        <v>0.05601960090579122</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.06867817081676821</v>
+        <v>-0.0719575826967252</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.017600631483344</v>
+        <v>9.232268780401043</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.543763746440062</v>
+        <v>8.245591670548357</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3603660755120719</v>
+        <v>0.3681513098783286</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.3136859366256271</v>
+        <v>0.3002227868626927</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>4.519136082027631</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.360481106337879</v>
+        <v>6.360481106337887</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2651386996891141</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.4092448040125219</v>
+        <v>0.4092448040125225</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.006820854156273</v>
+        <v>0.8687981960855551</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.390301048262333</v>
+        <v>3.444988575163039</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04853619176439459</v>
+        <v>0.04668154859650372</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.196185566704812</v>
+        <v>0.1921147563410288</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.073342252799254</v>
+        <v>8.169962254661977</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.216478927522431</v>
+        <v>9.215991734586218</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5147689435624718</v>
+        <v>0.534836209295202</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6753288123505676</v>
+        <v>0.6575492504579203</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>4.489188571861097</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.662315199907995</v>
+        <v>2.662315199907994</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.3534773922553294</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.2963388739206539</v>
+        <v>0.2963388739206536</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7400156246015234</v>
+        <v>0.5205775915699116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1777626863023447</v>
+        <v>0.576595051758783</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.0496983362234733</v>
+        <v>0.03302300733298916</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01933959090350243</v>
+        <v>0.05244170368926358</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.298255873067982</v>
+        <v>7.821838658507055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.813408326185078</v>
+        <v>5.274175218100135</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.7561742890850555</v>
+        <v>0.6946249602694035</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6254043602054182</v>
+        <v>0.6792005554774746</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.9090478485296</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-0.01715397940013214</v>
+        <v>-0.01715397940013352</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2547814538609641</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.002459253632786783</v>
+        <v>-0.002459253632786981</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.879399302007147</v>
+        <v>-1.417569994241497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.499925402327972</v>
+        <v>-2.391108493212049</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1374601967560519</v>
+        <v>-0.1094753310359943</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2929651136669385</v>
+        <v>-0.2834314631228247</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.40830745418441</v>
+        <v>7.790606001258604</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.250031586512149</v>
+        <v>2.260634018393821</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7704883488898517</v>
+        <v>0.8252735164656895</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4052021739457209</v>
+        <v>0.4154388447541121</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.997933003082772</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.002488433201884</v>
+        <v>4.002488433201886</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.2702089526885328</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.3009961665312182</v>
+        <v>0.3009961665312185</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.929572261508798</v>
+        <v>2.809291399385503</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.202418362114584</v>
+        <v>2.504781085233257</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1514539293503235</v>
+        <v>0.1396636009864586</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1597400139858711</v>
+        <v>0.1735737531209855</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.976462963402214</v>
+        <v>6.989149820991981</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.537107354775856</v>
+        <v>5.491642015909545</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.3971149414789883</v>
+        <v>0.399395475097092</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.449008227982689</v>
+        <v>0.4424573191610002</v>
       </c>
     </row>
     <row r="19">
